--- a/qaautomation.xlsx
+++ b/qaautomation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emumba/Desktop/From old PC/Automation Assignment/attemptOne/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6130426A-C9BA-374A-B34C-2BFC75AE024B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC9AED4-A4EE-7648-A2A7-7E2B3652DBDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34960" yWindow="3460" windowWidth="28800" windowHeight="15180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -516,9 +516,6 @@
     <t>Psychiatrist</t>
   </si>
   <si>
-    <t>George</t>
-  </si>
-  <si>
     <t>Roxy</t>
   </si>
   <si>
@@ -825,7 +822,10 @@
     <t>1 episode, 2022</t>
   </si>
   <si>
-    <t>tony.knowstheway1@gmail.com</t>
+    <t>George Braden</t>
+  </si>
+  <si>
+    <t>tony.knowstheway321@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1240,7 +1240,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1775,7 +1775,7 @@
         <v>145</v>
       </c>
       <c r="C3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1786,7 +1786,7 @@
         <v>146</v>
       </c>
       <c r="C4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1797,7 +1797,7 @@
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1808,7 +1808,7 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1819,7 +1819,7 @@
         <v>147</v>
       </c>
       <c r="C7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1830,7 +1830,7 @@
         <v>148</v>
       </c>
       <c r="C8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1841,7 +1841,7 @@
         <v>149</v>
       </c>
       <c r="C9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1852,7 +1852,7 @@
         <v>150</v>
       </c>
       <c r="C10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1863,7 +1863,7 @@
         <v>151</v>
       </c>
       <c r="C11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1874,7 +1874,7 @@
         <v>152</v>
       </c>
       <c r="C12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -1885,7 +1885,7 @@
         <v>153</v>
       </c>
       <c r="C13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1896,7 +1896,7 @@
         <v>154</v>
       </c>
       <c r="C14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -1907,7 +1907,7 @@
         <v>155</v>
       </c>
       <c r="C15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -1918,7 +1918,7 @@
         <v>156</v>
       </c>
       <c r="C16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -1929,7 +1929,7 @@
         <v>157</v>
       </c>
       <c r="C17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -1940,7 +1940,7 @@
         <v>158</v>
       </c>
       <c r="C18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -1948,10 +1948,10 @@
         <v>69</v>
       </c>
       <c r="B19" t="s">
-        <v>159</v>
+        <v>261</v>
       </c>
       <c r="C19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -1959,10 +1959,10 @@
         <v>70</v>
       </c>
       <c r="B20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C20" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -1970,10 +1970,10 @@
         <v>71</v>
       </c>
       <c r="B21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C21" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -1981,10 +1981,10 @@
         <v>72</v>
       </c>
       <c r="B22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C22" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -1992,10 +1992,10 @@
         <v>73</v>
       </c>
       <c r="B23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C23" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -2003,10 +2003,10 @@
         <v>74</v>
       </c>
       <c r="B24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -2014,10 +2014,10 @@
         <v>75</v>
       </c>
       <c r="B25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C25" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -2025,10 +2025,10 @@
         <v>76</v>
       </c>
       <c r="B26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C26" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -2036,10 +2036,10 @@
         <v>77</v>
       </c>
       <c r="B27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C27" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -2047,10 +2047,10 @@
         <v>78</v>
       </c>
       <c r="B28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -2058,10 +2058,10 @@
         <v>79</v>
       </c>
       <c r="B29" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C29" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -2069,10 +2069,10 @@
         <v>80</v>
       </c>
       <c r="B30" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C30" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -2080,10 +2080,10 @@
         <v>81</v>
       </c>
       <c r="B31" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C31" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -2091,10 +2091,10 @@
         <v>82</v>
       </c>
       <c r="B32" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C32" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -2102,10 +2102,10 @@
         <v>83</v>
       </c>
       <c r="B33" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C33" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -2113,10 +2113,10 @@
         <v>84</v>
       </c>
       <c r="B34" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C34" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -2124,10 +2124,10 @@
         <v>85</v>
       </c>
       <c r="B35" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C35" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -2135,10 +2135,10 @@
         <v>86</v>
       </c>
       <c r="B36" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C36" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -2146,10 +2146,10 @@
         <v>87</v>
       </c>
       <c r="B37" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C37" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -2157,10 +2157,10 @@
         <v>88</v>
       </c>
       <c r="B38" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C38" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -2168,10 +2168,10 @@
         <v>89</v>
       </c>
       <c r="B39" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C39" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -2179,10 +2179,10 @@
         <v>90</v>
       </c>
       <c r="B40" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C40" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -2190,10 +2190,10 @@
         <v>91</v>
       </c>
       <c r="B41" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C41" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -2201,10 +2201,10 @@
         <v>92</v>
       </c>
       <c r="B42" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C42" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -2212,7 +2212,7 @@
         <v>93</v>
       </c>
       <c r="B43" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C43" t="s">
         <v>17</v>
@@ -2223,7 +2223,7 @@
         <v>94</v>
       </c>
       <c r="B44" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C44" t="s">
         <v>17</v>
@@ -2234,7 +2234,7 @@
         <v>95</v>
       </c>
       <c r="B45" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C45" t="s">
         <v>17</v>
@@ -2245,7 +2245,7 @@
         <v>96</v>
       </c>
       <c r="B46" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C46" t="s">
         <v>17</v>
@@ -2256,7 +2256,7 @@
         <v>97</v>
       </c>
       <c r="B47" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C47" t="s">
         <v>17</v>
@@ -2267,10 +2267,10 @@
         <v>98</v>
       </c>
       <c r="B48" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C48" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -2278,10 +2278,10 @@
         <v>99</v>
       </c>
       <c r="B49" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C49" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -2289,7 +2289,7 @@
         <v>100</v>
       </c>
       <c r="B50" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C50" t="s">
         <v>17</v>
@@ -2300,10 +2300,10 @@
         <v>101</v>
       </c>
       <c r="B51" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C51" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -2311,10 +2311,10 @@
         <v>102</v>
       </c>
       <c r="B52" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C52" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -2322,7 +2322,7 @@
         <v>103</v>
       </c>
       <c r="B53" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C53" t="s">
         <v>17</v>
@@ -2333,7 +2333,7 @@
         <v>104</v>
       </c>
       <c r="B54" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C54" t="s">
         <v>17</v>
@@ -2344,7 +2344,7 @@
         <v>105</v>
       </c>
       <c r="B55" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C55" t="s">
         <v>17</v>
@@ -2355,10 +2355,10 @@
         <v>106</v>
       </c>
       <c r="B56" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C56" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -2366,10 +2366,10 @@
         <v>107</v>
       </c>
       <c r="B57" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C57" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -2377,7 +2377,7 @@
         <v>108</v>
       </c>
       <c r="B58" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C58" t="s">
         <v>17</v>
@@ -2388,7 +2388,7 @@
         <v>109</v>
       </c>
       <c r="B59" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C59" t="s">
         <v>17</v>
@@ -2399,7 +2399,7 @@
         <v>110</v>
       </c>
       <c r="B60" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C60" t="s">
         <v>17</v>
@@ -2410,7 +2410,7 @@
         <v>111</v>
       </c>
       <c r="B61" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C61" t="s">
         <v>17</v>
@@ -2421,10 +2421,10 @@
         <v>112</v>
       </c>
       <c r="B62" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C62" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -2432,10 +2432,10 @@
         <v>113</v>
       </c>
       <c r="B63" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C63" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -2443,10 +2443,10 @@
         <v>114</v>
       </c>
       <c r="B64" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C64" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -2454,7 +2454,7 @@
         <v>115</v>
       </c>
       <c r="B65" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C65" t="s">
         <v>17</v>
@@ -2465,7 +2465,7 @@
         <v>116</v>
       </c>
       <c r="B66" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C66" t="s">
         <v>17</v>
@@ -2476,10 +2476,10 @@
         <v>117</v>
       </c>
       <c r="B67" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C67" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -2487,7 +2487,7 @@
         <v>118</v>
       </c>
       <c r="B68" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C68" t="s">
         <v>17</v>
@@ -2498,10 +2498,10 @@
         <v>119</v>
       </c>
       <c r="B69" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C69" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -2509,10 +2509,10 @@
         <v>120</v>
       </c>
       <c r="B70" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C70" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -2520,10 +2520,10 @@
         <v>121</v>
       </c>
       <c r="B71" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C71" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -2531,10 +2531,10 @@
         <v>122</v>
       </c>
       <c r="B72" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C72" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -2542,7 +2542,7 @@
         <v>123</v>
       </c>
       <c r="B73" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C73" t="s">
         <v>17</v>
@@ -2553,10 +2553,10 @@
         <v>124</v>
       </c>
       <c r="B74" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C74" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
@@ -2564,10 +2564,10 @@
         <v>125</v>
       </c>
       <c r="B75" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C75" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -2575,10 +2575,10 @@
         <v>126</v>
       </c>
       <c r="B76" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C76" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -2586,10 +2586,10 @@
         <v>127</v>
       </c>
       <c r="B77" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C77" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
@@ -2597,10 +2597,10 @@
         <v>128</v>
       </c>
       <c r="B78" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C78" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
@@ -2608,10 +2608,10 @@
         <v>129</v>
       </c>
       <c r="B79" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C79" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -2619,10 +2619,10 @@
         <v>130</v>
       </c>
       <c r="B80" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C80" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
@@ -2630,10 +2630,10 @@
         <v>131</v>
       </c>
       <c r="B81" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C81" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
@@ -2641,10 +2641,10 @@
         <v>132</v>
       </c>
       <c r="B82" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C82" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
@@ -2652,10 +2652,10 @@
         <v>133</v>
       </c>
       <c r="B83" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C83" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
@@ -2663,10 +2663,10 @@
         <v>134</v>
       </c>
       <c r="B84" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C84" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
@@ -2674,10 +2674,10 @@
         <v>135</v>
       </c>
       <c r="B85" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C85" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
@@ -2685,7 +2685,7 @@
         <v>136</v>
       </c>
       <c r="B86" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C86" t="s">
         <v>17</v>
@@ -2696,7 +2696,7 @@
         <v>137</v>
       </c>
       <c r="B87" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C87" t="s">
         <v>17</v>
@@ -2707,10 +2707,10 @@
         <v>138</v>
       </c>
       <c r="B88" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C88" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
@@ -2718,7 +2718,7 @@
         <v>12</v>
       </c>
       <c r="B89" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C89" t="s">
         <v>17</v>
@@ -2729,7 +2729,7 @@
         <v>11</v>
       </c>
       <c r="B90" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C90" t="s">
         <v>17</v>
@@ -2740,7 +2740,7 @@
         <v>139</v>
       </c>
       <c r="B91" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C91" t="s">
         <v>17</v>
@@ -2751,7 +2751,7 @@
         <v>13</v>
       </c>
       <c r="B92" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C92" t="s">
         <v>17</v>
@@ -2762,10 +2762,10 @@
         <v>140</v>
       </c>
       <c r="B93" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C93" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
@@ -2773,10 +2773,10 @@
         <v>141</v>
       </c>
       <c r="B94" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C94" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
@@ -2784,10 +2784,10 @@
         <v>142</v>
       </c>
       <c r="B95" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C95" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
@@ -2795,10 +2795,10 @@
         <v>143</v>
       </c>
       <c r="B96" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C96" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
@@ -2806,10 +2806,10 @@
         <v>144</v>
       </c>
       <c r="B97" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C97" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">

--- a/qaautomation.xlsx
+++ b/qaautomation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10215"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emumba/Desktop/From old PC/Automation Assignment/attemptOne/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC9AED4-A4EE-7648-A2A7-7E2B3652DBDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58984FF8-DE26-1344-A84F-373A62FB9742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34960" yWindow="3460" windowWidth="28800" windowHeight="15180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="263">
   <si>
     <t>Series Cast</t>
   </si>
@@ -315,6 +315,9 @@
     <t>Robert Woodhall</t>
   </si>
   <si>
+    <t>Ewen MacIntosh</t>
+  </si>
+  <si>
     <t>Annette Crosbie</t>
   </si>
   <si>
@@ -348,12 +351,12 @@
     <t>James Gault</t>
   </si>
   <si>
+    <t>Nancy Sullivan</t>
+  </si>
+  <si>
     <t>Nicky B</t>
   </si>
   <si>
-    <t>Nancy Sullivan</t>
-  </si>
-  <si>
     <t>Megan Heffernan</t>
   </si>
   <si>
@@ -375,9 +378,6 @@
     <t>Beth Mullen</t>
   </si>
   <si>
-    <t>Ewen MacIntosh</t>
-  </si>
-  <si>
     <t>Jo Enright</t>
   </si>
   <si>
@@ -462,28 +462,19 @@
     <t>Ruth Clarson-Horrocks</t>
   </si>
   <si>
+    <t>Marc Hockley</t>
+  </si>
+  <si>
     <t>A.k. Steppa</t>
   </si>
   <si>
     <t>Ross Owen</t>
   </si>
   <si>
-    <t>Marc Hockley</t>
-  </si>
-  <si>
     <t>Gleb Smatko</t>
   </si>
   <si>
-    <t>Tony Johnson</t>
-  </si>
-  <si>
-    <t>Matt Braden</t>
-  </si>
-  <si>
-    <t>Lisa Johnson</t>
-  </si>
-  <si>
-    <t>Emma</t>
+    <t>Nurse</t>
   </si>
   <si>
     <t>Brandy the Dog</t>
@@ -495,18 +486,12 @@
     <t>Pat</t>
   </si>
   <si>
-    <t>Anne Pearson</t>
+    <t>Anne</t>
   </si>
   <si>
     <t>June</t>
   </si>
   <si>
-    <t>Brian Gittins</t>
-  </si>
-  <si>
-    <t>Ray Johnson</t>
-  </si>
-  <si>
     <t>James</t>
   </si>
   <si>
@@ -516,6 +501,9 @@
     <t>Psychiatrist</t>
   </si>
   <si>
+    <t>George Braden</t>
+  </si>
+  <si>
     <t>Roxy</t>
   </si>
   <si>
@@ -543,9 +531,6 @@
     <t>Tambury Gazette Staff</t>
   </si>
   <si>
-    <t>Eddie Taylor</t>
-  </si>
-  <si>
     <t>Penny Spencer-Wright</t>
   </si>
   <si>
@@ -582,6 +567,9 @@
     <t>Colin</t>
   </si>
   <si>
+    <t>Buffet Man</t>
+  </si>
+  <si>
     <t>Rosemary</t>
   </si>
   <si>
@@ -612,12 +600,12 @@
     <t>Emma's Colleague</t>
   </si>
   <si>
+    <t>Café Waitress</t>
+  </si>
+  <si>
     <t>Fat Woman</t>
   </si>
   <si>
-    <t>Café Waitress</t>
-  </si>
-  <si>
     <t>Breast Milk Woman</t>
   </si>
   <si>
@@ -639,9 +627,6 @@
     <t>Baby Hitler's Mum</t>
   </si>
   <si>
-    <t>Buffet Man</t>
-  </si>
-  <si>
     <t>Vera</t>
   </si>
   <si>
@@ -732,15 +717,15 @@
     <t>Pub Patron</t>
   </si>
   <si>
+    <t>Wedding Guest</t>
+  </si>
+  <si>
     <t>Wedding DJ</t>
   </si>
   <si>
     <t>Man in Cafe</t>
   </si>
   <si>
-    <t>Wedding Guest</t>
-  </si>
-  <si>
     <t>Cafe Patron</t>
   </si>
   <si>
@@ -789,7 +774,7 @@
     <t>5 episodes, 2019-2022</t>
   </si>
   <si>
-    <t>5 episodes, 2022</t>
+    <t>1 episode, 2022</t>
   </si>
   <si>
     <t>4 episodes, 2022</t>
@@ -819,13 +804,28 @@
     <t>1 episode, 2020</t>
   </si>
   <si>
-    <t>1 episode, 2022</t>
-  </si>
-  <si>
-    <t>George Braden</t>
-  </si>
-  <si>
-    <t>tony.knowstheway321@gmail.com</t>
+    <t>Kamran Kiani</t>
+  </si>
+  <si>
+    <t>Brian</t>
+  </si>
+  <si>
+    <t>Tony's Dad</t>
+  </si>
+  <si>
+    <t>Kaldi</t>
+  </si>
+  <si>
+    <t>Old Man in Care Home</t>
+  </si>
+  <si>
+    <t>11 episodes, 2019-2022</t>
+  </si>
+  <si>
+    <t>1 episode, 2020-2022</t>
+  </si>
+  <si>
+    <t>tony.knowstheway199@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1240,7 +1240,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1739,7 +1739,7 @@
   <dimension ref="A1:C115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:J102"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1772,10 +1772,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>145</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1783,10 +1783,10 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>146</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1797,7 +1797,7 @@
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1808,7 +1808,7 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1816,10 +1816,10 @@
         <v>57</v>
       </c>
       <c r="B7" t="s">
-        <v>147</v>
+        <v>214</v>
       </c>
       <c r="C7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1827,10 +1827,10 @@
         <v>58</v>
       </c>
       <c r="B8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C8" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1838,10 +1838,10 @@
         <v>59</v>
       </c>
       <c r="B9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C9" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1849,10 +1849,10 @@
         <v>60</v>
       </c>
       <c r="B10" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C10" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1860,10 +1860,10 @@
         <v>61</v>
       </c>
       <c r="B11" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C11" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1871,10 +1871,10 @@
         <v>62</v>
       </c>
       <c r="B12" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C12" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -1882,10 +1882,10 @@
         <v>63</v>
       </c>
       <c r="B13" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C13" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1893,10 +1893,10 @@
         <v>64</v>
       </c>
       <c r="B14" t="s">
-        <v>154</v>
+        <v>256</v>
       </c>
       <c r="C14" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -1904,10 +1904,10 @@
         <v>65</v>
       </c>
       <c r="B15" t="s">
-        <v>155</v>
+        <v>257</v>
       </c>
       <c r="C15" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -1915,10 +1915,10 @@
         <v>66</v>
       </c>
       <c r="B16" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C16" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -1926,10 +1926,10 @@
         <v>67</v>
       </c>
       <c r="B17" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C17" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -1937,10 +1937,10 @@
         <v>68</v>
       </c>
       <c r="B18" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C18" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -1948,263 +1948,263 @@
         <v>69</v>
       </c>
       <c r="B19" t="s">
-        <v>261</v>
+        <v>154</v>
       </c>
       <c r="C19" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>70</v>
+        <v>255</v>
       </c>
       <c r="B20" t="s">
-        <v>159</v>
+        <v>258</v>
       </c>
       <c r="C20" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B21" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C21" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B22" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C22" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B23" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C23" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B24" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C24" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B25" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C25" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B26" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C26" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B27" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C27" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B28" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C28" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B29" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C29" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B30" t="s">
-        <v>169</v>
+        <v>259</v>
       </c>
       <c r="C30" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B31" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C31" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B32" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C32" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B33" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C33" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B34" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C34" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B35" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C35" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B36" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C36" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B37" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C37" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B38" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C38" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B39" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C39" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B40" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C40" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B41" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C41" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B42" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C42" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -2212,10 +2212,10 @@
         <v>93</v>
       </c>
       <c r="B43" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C43" t="s">
-        <v>17</v>
+        <v>254</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -2223,7 +2223,7 @@
         <v>94</v>
       </c>
       <c r="B44" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C44" t="s">
         <v>17</v>
@@ -2234,7 +2234,7 @@
         <v>95</v>
       </c>
       <c r="B45" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C45" t="s">
         <v>17</v>
@@ -2245,7 +2245,7 @@
         <v>96</v>
       </c>
       <c r="B46" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C46" t="s">
         <v>17</v>
@@ -2256,7 +2256,7 @@
         <v>97</v>
       </c>
       <c r="B47" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C47" t="s">
         <v>17</v>
@@ -2267,10 +2267,10 @@
         <v>98</v>
       </c>
       <c r="B48" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C48" t="s">
-        <v>260</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -2278,10 +2278,10 @@
         <v>99</v>
       </c>
       <c r="B49" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C49" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -2289,10 +2289,10 @@
         <v>100</v>
       </c>
       <c r="B50" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C50" t="s">
-        <v>17</v>
+        <v>245</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -2300,10 +2300,10 @@
         <v>101</v>
       </c>
       <c r="B51" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C51" t="s">
-        <v>260</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -2314,7 +2314,7 @@
         <v>186</v>
       </c>
       <c r="C52" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -2322,10 +2322,10 @@
         <v>103</v>
       </c>
       <c r="B53" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="C53" t="s">
-        <v>17</v>
+        <v>245</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -2333,7 +2333,7 @@
         <v>104</v>
       </c>
       <c r="B54" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C54" t="s">
         <v>17</v>
@@ -2344,7 +2344,7 @@
         <v>105</v>
       </c>
       <c r="B55" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C55" t="s">
         <v>17</v>
@@ -2355,10 +2355,10 @@
         <v>106</v>
       </c>
       <c r="B56" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C56" t="s">
-        <v>259</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -2366,10 +2366,10 @@
         <v>107</v>
       </c>
       <c r="B57" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C57" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -2377,10 +2377,10 @@
         <v>108</v>
       </c>
       <c r="B58" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C58" t="s">
-        <v>17</v>
+        <v>245</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -2388,7 +2388,7 @@
         <v>109</v>
       </c>
       <c r="B59" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C59" t="s">
         <v>17</v>
@@ -2399,7 +2399,7 @@
         <v>110</v>
       </c>
       <c r="B60" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C60" t="s">
         <v>17</v>
@@ -2410,7 +2410,7 @@
         <v>111</v>
       </c>
       <c r="B61" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C61" t="s">
         <v>17</v>
@@ -2421,51 +2421,51 @@
         <v>112</v>
       </c>
       <c r="B62" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C62" t="s">
-        <v>260</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="B63" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="C63" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B64" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C64" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B65" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C65" t="s">
-        <v>17</v>
+        <v>245</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B66" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C66" t="s">
         <v>17</v>
@@ -2473,230 +2473,230 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B67" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C67" t="s">
-        <v>260</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B68" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C68" t="s">
-        <v>17</v>
+        <v>245</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B69" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C69" t="s">
-        <v>259</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B70" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C70" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B71" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C71" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B72" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C72" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B73" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C73" t="s">
-        <v>17</v>
+        <v>245</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B74" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C74" t="s">
-        <v>259</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B75" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C75" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B76" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C76" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B77" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C77" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B78" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C78" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B79" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C79" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B80" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C80" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B81" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C81" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B82" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C82" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B83" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C83" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B84" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C84" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B85" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="C85" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B86" t="s">
-        <v>223</v>
+        <v>190</v>
       </c>
       <c r="C86" t="s">
-        <v>17</v>
+        <v>245</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B87" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C87" t="s">
         <v>17</v>
@@ -2704,32 +2704,32 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B88" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C88" t="s">
-        <v>260</v>
+        <v>17</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>12</v>
+        <v>138</v>
       </c>
       <c r="B89" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C89" t="s">
-        <v>17</v>
+        <v>245</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B90" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C90" t="s">
         <v>17</v>
@@ -2737,10 +2737,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>139</v>
+        <v>11</v>
       </c>
       <c r="B91" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C91" t="s">
         <v>17</v>
@@ -2751,7 +2751,7 @@
         <v>13</v>
       </c>
       <c r="B92" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C92" t="s">
         <v>17</v>
@@ -2759,63 +2759,69 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B93" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C93" t="s">
-        <v>259</v>
+        <v>17</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B94" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C94" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B95" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C95" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B96" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C96" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
+        <v>143</v>
+      </c>
+      <c r="B97" t="s">
+        <v>228</v>
+      </c>
+      <c r="C97" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
         <v>144</v>
       </c>
-      <c r="B97" t="s">
-        <v>234</v>
-      </c>
-      <c r="C97" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" s="10"/>
-      <c r="B98" s="10"/>
-      <c r="C98" s="10"/>
+      <c r="B98" t="s">
+        <v>229</v>
+      </c>
+      <c r="C98" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="10"/>

--- a/qaautomation.xlsx
+++ b/qaautomation.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10215"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emumba/Desktop/From old PC/Automation Assignment/attemptOne/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58984FF8-DE26-1344-A84F-373A62FB9742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC86C69-76A7-2C49-B0A2-EE73DCD8DEB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="263">
   <si>
     <t>Series Cast</t>
   </si>
@@ -825,13 +825,14 @@
     <t>1 episode, 2020-2022</t>
   </si>
   <si>
-    <t>tony.knowstheway199@gmail.com</t>
+    <t>tony.knowstheway867@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1240,14 +1241,14 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="48.33203125" style="10" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="10" width="48.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1351,13 +1352,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="47.1640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="36.5" style="2" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="29.33203125" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="51.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="51.33203125" style="2" customWidth="1" collapsed="1"/>
-    <col min="8" max="16384" width="9.1640625" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="47.1640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="11.0" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" style="2" width="36.5" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="29.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="51.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="51.33203125" collapsed="true"/>
+    <col min="8" max="16384" style="2" width="9.1640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19" x14ac:dyDescent="0.2">
@@ -1538,9 +1539,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
@@ -1744,9 +1745,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">

--- a/qaautomation.xlsx
+++ b/qaautomation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emumba/Desktop/From old PC/Automation Assignment/attemptOne/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC86C69-76A7-2C49-B0A2-EE73DCD8DEB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39123AB8-BAB1-2147-8D2B-5B80B2B82108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="262">
   <si>
     <t>Series Cast</t>
   </si>
@@ -255,6 +255,9 @@
     <t>Laura Patch</t>
   </si>
   <si>
+    <t>Kamran Kiani</t>
+  </si>
+  <si>
     <t>Colin Hoult</t>
   </si>
   <si>
@@ -315,69 +318,69 @@
     <t>Robert Woodhall</t>
   </si>
   <si>
+    <t>Annette Crosbie</t>
+  </si>
+  <si>
+    <t>Ninette Finch</t>
+  </si>
+  <si>
+    <t>Daniel Copeland</t>
+  </si>
+  <si>
+    <t>Adrian McLoughlin</t>
+  </si>
+  <si>
+    <t>Alexander Kirk</t>
+  </si>
+  <si>
+    <t>Tim Fitzhigham</t>
+  </si>
+  <si>
+    <t>Tim Key</t>
+  </si>
+  <si>
+    <t>Michael Spicer</t>
+  </si>
+  <si>
+    <t>Sean McLoughlin</t>
+  </si>
+  <si>
+    <t>Elsie Fallon</t>
+  </si>
+  <si>
+    <t>James Gault</t>
+  </si>
+  <si>
+    <t>Nancy Sullivan</t>
+  </si>
+  <si>
+    <t>Nicky B</t>
+  </si>
+  <si>
+    <t>Megan Heffernan</t>
+  </si>
+  <si>
+    <t>Seb Cardinal</t>
+  </si>
+  <si>
+    <t>Colin Farrell</t>
+  </si>
+  <si>
+    <t>Nikhil Parmar</t>
+  </si>
+  <si>
+    <t>Dan Li</t>
+  </si>
+  <si>
+    <t>Brendan Howley</t>
+  </si>
+  <si>
+    <t>Beth Mullen</t>
+  </si>
+  <si>
     <t>Ewen MacIntosh</t>
   </si>
   <si>
-    <t>Annette Crosbie</t>
-  </si>
-  <si>
-    <t>Ninette Finch</t>
-  </si>
-  <si>
-    <t>Daniel Copeland</t>
-  </si>
-  <si>
-    <t>Adrian McLoughlin</t>
-  </si>
-  <si>
-    <t>Alexander Kirk</t>
-  </si>
-  <si>
-    <t>Tim Fitzhigham</t>
-  </si>
-  <si>
-    <t>Tim Key</t>
-  </si>
-  <si>
-    <t>Michael Spicer</t>
-  </si>
-  <si>
-    <t>Sean McLoughlin</t>
-  </si>
-  <si>
-    <t>Elsie Fallon</t>
-  </si>
-  <si>
-    <t>James Gault</t>
-  </si>
-  <si>
-    <t>Nancy Sullivan</t>
-  </si>
-  <si>
-    <t>Nicky B</t>
-  </si>
-  <si>
-    <t>Megan Heffernan</t>
-  </si>
-  <si>
-    <t>Seb Cardinal</t>
-  </si>
-  <si>
-    <t>Colin Farrell</t>
-  </si>
-  <si>
-    <t>Nikhil Parmar</t>
-  </si>
-  <si>
-    <t>Dan Li</t>
-  </si>
-  <si>
-    <t>Brendan Howley</t>
-  </si>
-  <si>
-    <t>Beth Mullen</t>
-  </si>
-  <si>
     <t>Jo Enright</t>
   </si>
   <si>
@@ -462,18 +465,21 @@
     <t>Ruth Clarson-Horrocks</t>
   </si>
   <si>
+    <t>A.k. Steppa</t>
+  </si>
+  <si>
     <t>Marc Hockley</t>
   </si>
   <si>
-    <t>A.k. Steppa</t>
-  </si>
-  <si>
     <t>Ross Owen</t>
   </si>
   <si>
     <t>Gleb Smatko</t>
   </si>
   <si>
+    <t>Lisa</t>
+  </si>
+  <si>
     <t>Nurse</t>
   </si>
   <si>
@@ -492,6 +498,12 @@
     <t>June</t>
   </si>
   <si>
+    <t>Brian</t>
+  </si>
+  <si>
+    <t>Tony's Dad</t>
+  </si>
+  <si>
     <t>James</t>
   </si>
   <si>
@@ -510,6 +522,9 @@
     <t>Jill Braden</t>
   </si>
   <si>
+    <t>Kaldi</t>
+  </si>
+  <si>
     <t>Ken Otley</t>
   </si>
   <si>
@@ -531,6 +546,9 @@
     <t>Tambury Gazette Staff</t>
   </si>
   <si>
+    <t>Old Man in Care Home</t>
+  </si>
+  <si>
     <t>Penny Spencer-Wright</t>
   </si>
   <si>
@@ -567,66 +585,66 @@
     <t>Colin</t>
   </si>
   <si>
+    <t>Rosemary</t>
+  </si>
+  <si>
+    <t>Newsagent</t>
+  </si>
+  <si>
+    <t>Man in Park</t>
+  </si>
+  <si>
+    <t>5 Card Man</t>
+  </si>
+  <si>
+    <t>Stain Man</t>
+  </si>
+  <si>
+    <t>Waiter</t>
+  </si>
+  <si>
+    <t>Rude Date</t>
+  </si>
+  <si>
+    <t>Ben</t>
+  </si>
+  <si>
+    <t>Comedian</t>
+  </si>
+  <si>
+    <t>Emma's Colleague</t>
+  </si>
+  <si>
+    <t>Café Waitress</t>
+  </si>
+  <si>
+    <t>Fat Woman</t>
+  </si>
+  <si>
+    <t>Breast Milk Woman</t>
+  </si>
+  <si>
+    <t>Yoga Instructor</t>
+  </si>
+  <si>
+    <t>Bill</t>
+  </si>
+  <si>
+    <t>Charity Collector</t>
+  </si>
+  <si>
+    <t>Homeless Man</t>
+  </si>
+  <si>
+    <t>Shop Assistant</t>
+  </si>
+  <si>
+    <t>Baby Hitler's Mum</t>
+  </si>
+  <si>
     <t>Buffet Man</t>
   </si>
   <si>
-    <t>Rosemary</t>
-  </si>
-  <si>
-    <t>Newsagent</t>
-  </si>
-  <si>
-    <t>Man in Park</t>
-  </si>
-  <si>
-    <t>5 Card Man</t>
-  </si>
-  <si>
-    <t>Stain Man</t>
-  </si>
-  <si>
-    <t>Waiter</t>
-  </si>
-  <si>
-    <t>Rude Date</t>
-  </si>
-  <si>
-    <t>Ben</t>
-  </si>
-  <si>
-    <t>Comedian</t>
-  </si>
-  <si>
-    <t>Emma's Colleague</t>
-  </si>
-  <si>
-    <t>Café Waitress</t>
-  </si>
-  <si>
-    <t>Fat Woman</t>
-  </si>
-  <si>
-    <t>Breast Milk Woman</t>
-  </si>
-  <si>
-    <t>Yoga Instructor</t>
-  </si>
-  <si>
-    <t>Bill</t>
-  </si>
-  <si>
-    <t>Charity Collector</t>
-  </si>
-  <si>
-    <t>Homeless Man</t>
-  </si>
-  <si>
-    <t>Shop Assistant</t>
-  </si>
-  <si>
-    <t>Baby Hitler's Mum</t>
-  </si>
-  <si>
     <t>Vera</t>
   </si>
   <si>
@@ -681,9 +699,6 @@
     <t>Dog Handler</t>
   </si>
   <si>
-    <t>Lisa</t>
-  </si>
-  <si>
     <t>Woman in Pub</t>
   </si>
   <si>
@@ -708,21 +723,21 @@
     <t>Checkout Assistant</t>
   </si>
   <si>
+    <t>Passer by</t>
+  </si>
+  <si>
     <t>Passerby</t>
   </si>
   <si>
-    <t>Passer by</t>
-  </si>
-  <si>
     <t>Pub Patron</t>
   </si>
   <si>
+    <t>Wedding DJ</t>
+  </si>
+  <si>
     <t>Wedding Guest</t>
   </si>
   <si>
-    <t>Wedding DJ</t>
-  </si>
-  <si>
     <t>Man in Cafe</t>
   </si>
   <si>
@@ -801,38 +816,19 @@
     <t>2 episodes, 2020-2022</t>
   </si>
   <si>
+    <t>1 episode, 2020-2022</t>
+  </si>
+  <si>
     <t>1 episode, 2020</t>
   </si>
   <si>
-    <t>Kamran Kiani</t>
-  </si>
-  <si>
-    <t>Brian</t>
-  </si>
-  <si>
-    <t>Tony's Dad</t>
-  </si>
-  <si>
-    <t>Kaldi</t>
-  </si>
-  <si>
-    <t>Old Man in Care Home</t>
-  </si>
-  <si>
-    <t>11 episodes, 2019-2022</t>
-  </si>
-  <si>
-    <t>1 episode, 2020-2022</t>
-  </si>
-  <si>
-    <t>tony.knowstheway867@gmail.com</t>
+    <t>tony.knowstheway888@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1241,14 +1237,14 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="10" width="48.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.33203125" collapsed="true"/>
+    <col min="1" max="1" width="24" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="48.33203125" style="10" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -1281,7 +1277,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1352,13 +1348,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="47.1640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="2" width="11.0" collapsed="true"/>
-    <col min="3" max="4" customWidth="true" style="2" width="36.5" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="2" width="29.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="2" width="51.6640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="2" width="51.33203125" collapsed="true"/>
-    <col min="8" max="16384" style="2" width="9.1640625" collapsed="true"/>
+    <col min="1" max="1" width="47.1640625" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="36.5" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="29.33203125" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="51.6640625" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="51.33203125" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="16384" width="9.1640625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19" x14ac:dyDescent="0.2">
@@ -1539,9 +1535,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="20.6640625" collapsed="true"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
@@ -1740,14 +1736,14 @@
   <dimension ref="A1:C115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="20.6640625" collapsed="true"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
@@ -1776,7 +1772,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1787,7 +1783,7 @@
         <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1798,7 +1794,7 @@
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1809,7 +1805,7 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1817,10 +1813,10 @@
         <v>57</v>
       </c>
       <c r="B7" t="s">
-        <v>214</v>
+        <v>146</v>
       </c>
       <c r="C7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1828,10 +1824,10 @@
         <v>58</v>
       </c>
       <c r="B8" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C8" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1839,10 +1835,10 @@
         <v>59</v>
       </c>
       <c r="B9" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C9" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1850,10 +1846,10 @@
         <v>60</v>
       </c>
       <c r="B10" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C10" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1861,10 +1857,10 @@
         <v>61</v>
       </c>
       <c r="B11" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C11" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1872,10 +1868,10 @@
         <v>62</v>
       </c>
       <c r="B12" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C12" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -1883,10 +1879,10 @@
         <v>63</v>
       </c>
       <c r="B13" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C13" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1894,10 +1890,10 @@
         <v>64</v>
       </c>
       <c r="B14" t="s">
-        <v>256</v>
+        <v>153</v>
       </c>
       <c r="C14" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -1905,10 +1901,10 @@
         <v>65</v>
       </c>
       <c r="B15" t="s">
-        <v>257</v>
+        <v>154</v>
       </c>
       <c r="C15" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -1916,10 +1912,10 @@
         <v>66</v>
       </c>
       <c r="B16" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C16" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -1927,10 +1923,10 @@
         <v>67</v>
       </c>
       <c r="B17" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C17" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -1938,10 +1934,10 @@
         <v>68</v>
       </c>
       <c r="B18" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C18" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -1949,263 +1945,263 @@
         <v>69</v>
       </c>
       <c r="B19" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C19" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>255</v>
+        <v>70</v>
       </c>
       <c r="B20" t="s">
-        <v>258</v>
+        <v>159</v>
       </c>
       <c r="C20" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B21" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C21" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B22" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C22" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B23" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C23" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B24" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C24" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B25" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C25" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B26" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C26" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B27" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C27" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B28" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C28" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B29" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C29" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B30" t="s">
-        <v>259</v>
+        <v>169</v>
       </c>
       <c r="C30" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B31" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C31" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B32" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C32" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B33" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C33" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B34" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C34" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B35" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C35" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B36" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C36" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B37" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C37" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B38" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C38" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B39" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="C39" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B40" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="C40" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B41" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="C41" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B42" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C42" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -2213,10 +2209,10 @@
         <v>93</v>
       </c>
       <c r="B43" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C43" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -2224,7 +2220,7 @@
         <v>94</v>
       </c>
       <c r="B44" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C44" t="s">
         <v>17</v>
@@ -2235,7 +2231,7 @@
         <v>95</v>
       </c>
       <c r="B45" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C45" t="s">
         <v>17</v>
@@ -2246,7 +2242,7 @@
         <v>96</v>
       </c>
       <c r="B46" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C46" t="s">
         <v>17</v>
@@ -2257,7 +2253,7 @@
         <v>97</v>
       </c>
       <c r="B47" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C47" t="s">
         <v>17</v>
@@ -2268,7 +2264,7 @@
         <v>98</v>
       </c>
       <c r="B48" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C48" t="s">
         <v>17</v>
@@ -2279,10 +2275,10 @@
         <v>99</v>
       </c>
       <c r="B49" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C49" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -2290,10 +2286,10 @@
         <v>100</v>
       </c>
       <c r="B50" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C50" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -2301,7 +2297,7 @@
         <v>101</v>
       </c>
       <c r="B51" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C51" t="s">
         <v>17</v>
@@ -2312,10 +2308,10 @@
         <v>102</v>
       </c>
       <c r="B52" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C52" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -2323,10 +2319,10 @@
         <v>103</v>
       </c>
       <c r="B53" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C53" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -2334,7 +2330,7 @@
         <v>104</v>
       </c>
       <c r="B54" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C54" t="s">
         <v>17</v>
@@ -2345,7 +2341,7 @@
         <v>105</v>
       </c>
       <c r="B55" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C55" t="s">
         <v>17</v>
@@ -2356,7 +2352,7 @@
         <v>106</v>
       </c>
       <c r="B56" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C56" t="s">
         <v>17</v>
@@ -2367,10 +2363,10 @@
         <v>107</v>
       </c>
       <c r="B57" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C57" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -2378,10 +2374,10 @@
         <v>108</v>
       </c>
       <c r="B58" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C58" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -2389,7 +2385,7 @@
         <v>109</v>
       </c>
       <c r="B59" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C59" t="s">
         <v>17</v>
@@ -2400,7 +2396,7 @@
         <v>110</v>
       </c>
       <c r="B60" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C60" t="s">
         <v>17</v>
@@ -2411,7 +2407,7 @@
         <v>111</v>
       </c>
       <c r="B61" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C61" t="s">
         <v>17</v>
@@ -2422,7 +2418,7 @@
         <v>112</v>
       </c>
       <c r="B62" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="C62" t="s">
         <v>17</v>
@@ -2430,43 +2426,43 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="B63" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="C63" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B64" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C64" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B65" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C65" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B66" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="C66" t="s">
         <v>17</v>
@@ -2474,10 +2470,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B67" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="C67" t="s">
         <v>17</v>
@@ -2485,21 +2481,21 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B68" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C68" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B69" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="C69" t="s">
         <v>17</v>
@@ -2507,54 +2503,54 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B70" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="C70" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B71" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C71" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B72" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C72" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B73" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C73" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B74" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="C74" t="s">
         <v>17</v>
@@ -2562,142 +2558,142 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B75" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C75" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B76" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="C76" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B77" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="C77" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B78" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C78" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B79" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C79" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B80" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="C80" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B81" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="C81" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B82" t="s">
-        <v>214</v>
+        <v>146</v>
       </c>
       <c r="C82" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B83" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C83" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B84" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C84" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B85" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C85" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B86" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C86" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B87" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C87" t="s">
         <v>17</v>
@@ -2705,10 +2701,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B88" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C88" t="s">
         <v>17</v>
@@ -2716,13 +2712,13 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B89" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C89" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
@@ -2730,7 +2726,7 @@
         <v>12</v>
       </c>
       <c r="B90" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C90" t="s">
         <v>17</v>
@@ -2741,7 +2737,7 @@
         <v>11</v>
       </c>
       <c r="B91" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C91" t="s">
         <v>17</v>
@@ -2752,7 +2748,7 @@
         <v>13</v>
       </c>
       <c r="B92" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C92" t="s">
         <v>17</v>
@@ -2760,10 +2756,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B93" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C93" t="s">
         <v>17</v>
@@ -2771,57 +2767,57 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B94" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="C94" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B95" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C95" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B96" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="C96" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B97" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C97" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B98" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C98" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
